--- a/dataanalysis/data/predictions/1600/08251518_1520.xlsx
+++ b/dataanalysis/data/predictions/1600/08251518_1520.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="201">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-25</t>
   </si>
   <si>
@@ -614,12 +617,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -977,13 +974,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH111"/>
+  <dimension ref="A1:AI111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,19 +1083,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>13.58</v>
@@ -1116,7 +1116,7 @@
         <v>118350.43</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1157,8 +1157,23 @@
       <c r="W2">
         <v>1.06</v>
       </c>
+      <c r="X2">
+        <v>-1.97</v>
+      </c>
+      <c r="Y2">
+        <v>12.38</v>
+      </c>
+      <c r="Z2">
+        <v>1.39</v>
+      </c>
       <c r="AC2" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1166,22 +1181,25 @@
       <c r="AG2">
         <v>1.703013181686401</v>
       </c>
-      <c r="AH2" t="s">
-        <v>200</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300033</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-0.62</v>
@@ -1199,7 +1217,7 @@
         <v>946614.37</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -1240,8 +1258,23 @@
       <c r="W3">
         <v>-0.2</v>
       </c>
+      <c r="X3">
+        <v>0.92</v>
+      </c>
+      <c r="Y3">
+        <v>412.81</v>
+      </c>
+      <c r="Z3">
+        <v>3.63</v>
+      </c>
       <c r="AC3" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1249,22 +1282,25 @@
       <c r="AG3">
         <v>7.352337837219238</v>
       </c>
-      <c r="AH3" t="s">
-        <v>200</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300037</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>9.85</v>
@@ -1282,7 +1318,7 @@
         <v>198054.04</v>
       </c>
       <c r="J4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1323,8 +1359,23 @@
       <c r="W4">
         <v>0.5</v>
       </c>
+      <c r="X4">
+        <v>-4.52</v>
+      </c>
+      <c r="Y4">
+        <v>47</v>
+      </c>
+      <c r="Z4">
+        <v>-0.8</v>
+      </c>
       <c r="AC4" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1332,22 +1383,25 @@
       <c r="AG4">
         <v>-38.21962356567383</v>
       </c>
-      <c r="AH4" t="s">
-        <v>200</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300047</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>3.81</v>
@@ -1365,7 +1419,7 @@
         <v>224113.56</v>
       </c>
       <c r="J5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1406,8 +1460,23 @@
       <c r="W5">
         <v>-0.01</v>
       </c>
+      <c r="X5">
+        <v>0.77</v>
+      </c>
+      <c r="Y5">
+        <v>21.28</v>
+      </c>
+      <c r="Z5">
+        <v>8.57</v>
+      </c>
       <c r="AC5" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1415,22 +1484,25 @@
       <c r="AG5">
         <v>2.809942245483398</v>
       </c>
-      <c r="AH5" t="s">
-        <v>200</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300049</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-1.74</v>
@@ -1448,7 +1520,7 @@
         <v>129897.57</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K6">
         <v>13</v>
@@ -1489,8 +1561,23 @@
       <c r="W6">
         <v>-0.59</v>
       </c>
+      <c r="X6">
+        <v>-4.07</v>
+      </c>
+      <c r="Y6">
+        <v>63.57</v>
+      </c>
+      <c r="Z6">
+        <v>0.59</v>
+      </c>
       <c r="AC6" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1498,22 +1585,25 @@
       <c r="AG6">
         <v>-1.243812799453735</v>
       </c>
-      <c r="AH6" t="s">
-        <v>200</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300066</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>4.27</v>
@@ -1531,7 +1621,7 @@
         <v>286801.23</v>
       </c>
       <c r="J7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K7">
         <v>13</v>
@@ -1572,8 +1662,23 @@
       <c r="W7">
         <v>-3.62</v>
       </c>
+      <c r="X7">
+        <v>-6.14</v>
+      </c>
+      <c r="Y7">
+        <v>8.68</v>
+      </c>
+      <c r="Z7">
+        <v>-1.36</v>
+      </c>
       <c r="AC7" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1581,22 +1686,25 @@
       <c r="AG7">
         <v>-0.3881181180477142</v>
       </c>
-      <c r="AH7" t="s">
-        <v>200</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300113</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>5.36</v>
@@ -1614,7 +1722,7 @@
         <v>314327.32</v>
       </c>
       <c r="J8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1655,8 +1763,23 @@
       <c r="W8">
         <v>-1.43</v>
       </c>
+      <c r="X8">
+        <v>-0.42</v>
+      </c>
+      <c r="Y8">
+        <v>29.33</v>
+      </c>
+      <c r="Z8">
+        <v>2.2</v>
+      </c>
       <c r="AC8" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1664,22 +1787,25 @@
       <c r="AG8">
         <v>4.290221691131592</v>
       </c>
-      <c r="AH8" t="s">
-        <v>200</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300153</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-0.42</v>
@@ -1697,7 +1823,7 @@
         <v>203027.08</v>
       </c>
       <c r="J9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1738,8 +1864,23 @@
       <c r="W9">
         <v>-0.73</v>
       </c>
+      <c r="X9">
+        <v>-1.36</v>
+      </c>
+      <c r="Y9">
+        <v>47.17</v>
+      </c>
+      <c r="Z9">
+        <v>0.34</v>
+      </c>
       <c r="AC9" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1747,22 +1888,25 @@
       <c r="AG9">
         <v>1.664968490600586</v>
       </c>
-      <c r="AH9" t="s">
-        <v>200</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300158</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>7.28</v>
@@ -1780,7 +1924,7 @@
         <v>118617.83</v>
       </c>
       <c r="J10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K10">
         <v>24</v>
@@ -1821,8 +1965,23 @@
       <c r="W10">
         <v>0.47</v>
       </c>
+      <c r="X10">
+        <v>5.12</v>
+      </c>
+      <c r="Y10">
+        <v>10.27</v>
+      </c>
+      <c r="Z10">
+        <v>14.24</v>
+      </c>
       <c r="AC10" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1830,22 +1989,25 @@
       <c r="AG10">
         <v>-2.609288215637207</v>
       </c>
-      <c r="AH10" t="s">
-        <v>200</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300184</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-2.42</v>
@@ -1863,7 +2025,7 @@
         <v>275652.17</v>
       </c>
       <c r="J11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -1904,8 +2066,23 @@
       <c r="W11">
         <v>-1.18</v>
       </c>
+      <c r="X11">
+        <v>-2.64</v>
+      </c>
+      <c r="Y11">
+        <v>12.56</v>
+      </c>
+      <c r="Z11">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="AC11" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1913,22 +2090,25 @@
       <c r="AG11">
         <v>1.291748046875</v>
       </c>
-      <c r="AH11" t="s">
-        <v>200</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300199</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>2.22</v>
@@ -1946,7 +2126,7 @@
         <v>363128.83</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K12">
         <v>20</v>
@@ -1987,8 +2167,23 @@
       <c r="W12">
         <v>-1.37</v>
       </c>
+      <c r="X12">
+        <v>-5.94</v>
+      </c>
+      <c r="Y12">
+        <v>28.94</v>
+      </c>
+      <c r="Z12">
+        <v>-0.03</v>
+      </c>
       <c r="AC12" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1996,22 +2191,25 @@
       <c r="AG12">
         <v>211.5440521240234</v>
       </c>
-      <c r="AH12" t="s">
-        <v>200</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300213</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>3.81</v>
@@ -2029,7 +2227,7 @@
         <v>58255.85</v>
       </c>
       <c r="J13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K13">
         <v>8</v>
@@ -2070,8 +2268,23 @@
       <c r="W13">
         <v>0.38</v>
       </c>
+      <c r="X13">
+        <v>-1.7</v>
+      </c>
+      <c r="Y13">
+        <v>11.26</v>
+      </c>
+      <c r="Z13">
+        <v>0.72</v>
+      </c>
       <c r="AC13" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2079,22 +2292,25 @@
       <c r="AG13">
         <v>6.441946506500244</v>
       </c>
-      <c r="AH13" t="s">
-        <v>200</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300218</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>11.74</v>
@@ -2112,7 +2328,7 @@
         <v>64573.38</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2153,8 +2369,23 @@
       <c r="W14">
         <v>1.49</v>
       </c>
+      <c r="X14">
+        <v>-4.71</v>
+      </c>
+      <c r="Y14">
+        <v>23.36</v>
+      </c>
+      <c r="Z14">
+        <v>-1.85</v>
+      </c>
       <c r="AC14" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2162,22 +2393,25 @@
       <c r="AG14">
         <v>4.354572772979736</v>
       </c>
-      <c r="AH14" t="s">
-        <v>200</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300224</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>8.02</v>
@@ -2195,7 +2429,7 @@
         <v>253050.5</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K15">
         <v>13</v>
@@ -2236,8 +2470,23 @@
       <c r="W15">
         <v>0.51</v>
       </c>
+      <c r="X15">
+        <v>-5.33</v>
+      </c>
+      <c r="Y15">
+        <v>19.19</v>
+      </c>
+      <c r="Z15">
+        <v>-1.74</v>
+      </c>
       <c r="AC15" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2245,22 +2494,25 @@
       <c r="AG15">
         <v>7.394857883453369</v>
       </c>
-      <c r="AH15" t="s">
-        <v>200</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300252</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>8.49</v>
@@ -2278,7 +2530,7 @@
         <v>147350.02</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -2319,8 +2571,23 @@
       <c r="W16">
         <v>1.73</v>
       </c>
+      <c r="X16">
+        <v>-3.54</v>
+      </c>
+      <c r="Y16">
+        <v>14.7</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
       <c r="AC16" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2328,22 +2595,25 @@
       <c r="AG16">
         <v>-1.627308964729309</v>
       </c>
-      <c r="AH16" t="s">
-        <v>200</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300290</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>2.51</v>
@@ -2361,7 +2631,7 @@
         <v>147279.14</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2402,8 +2672,23 @@
       <c r="W17">
         <v>0.12</v>
       </c>
+      <c r="X17">
+        <v>-3.23</v>
+      </c>
+      <c r="Y17">
+        <v>25.95</v>
+      </c>
+      <c r="Z17">
+        <v>0.97</v>
+      </c>
       <c r="AC17" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2411,22 +2696,25 @@
       <c r="AG17">
         <v>4.817770481109619</v>
       </c>
-      <c r="AH17" t="s">
-        <v>200</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300323</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0.41</v>
@@ -2444,7 +2732,7 @@
         <v>94543.00999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2485,8 +2773,23 @@
       <c r="W18">
         <v>-0.36</v>
       </c>
+      <c r="X18">
+        <v>0.31</v>
+      </c>
+      <c r="Y18">
+        <v>10.07</v>
+      </c>
+      <c r="Z18">
+        <v>3.07</v>
+      </c>
       <c r="AC18" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2494,22 +2797,25 @@
       <c r="AG18">
         <v>-1.966788649559021</v>
       </c>
-      <c r="AH18" t="s">
-        <v>200</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300324</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-2.36</v>
@@ -2527,7 +2833,7 @@
         <v>234622.8</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2568,8 +2874,23 @@
       <c r="W19">
         <v>-2.74</v>
       </c>
+      <c r="X19">
+        <v>-3.87</v>
+      </c>
+      <c r="Y19">
+        <v>6.14</v>
+      </c>
+      <c r="Z19">
+        <v>-0.97</v>
+      </c>
       <c r="AC19" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2577,22 +2898,25 @@
       <c r="AG19">
         <v>2.589988231658936</v>
       </c>
-      <c r="AH19" t="s">
-        <v>200</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300328</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>5.37</v>
@@ -2610,7 +2934,7 @@
         <v>276029.49</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2651,8 +2975,23 @@
       <c r="W20">
         <v>0.65</v>
       </c>
+      <c r="X20">
+        <v>-1.93</v>
+      </c>
+      <c r="Y20">
+        <v>19.78</v>
+      </c>
+      <c r="Z20">
+        <v>6.12</v>
+      </c>
       <c r="AC20" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2660,22 +2999,25 @@
       <c r="AG20">
         <v>-2.022842168807983</v>
       </c>
-      <c r="AH20" t="s">
-        <v>200</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300394</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>5.25</v>
@@ -2693,7 +3035,7 @@
         <v>706250.85</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K21">
         <v>20</v>
@@ -2734,8 +3076,23 @@
       <c r="W21">
         <v>-0.01</v>
       </c>
+      <c r="X21">
+        <v>11.93</v>
+      </c>
+      <c r="Y21">
+        <v>155</v>
+      </c>
+      <c r="Z21">
+        <v>19.83</v>
+      </c>
       <c r="AC21" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2743,22 +3100,25 @@
       <c r="AG21">
         <v>1.848775029182434</v>
       </c>
-      <c r="AH21" t="s">
-        <v>200</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300409</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0.58</v>
@@ -2776,7 +3136,7 @@
         <v>201643.97</v>
       </c>
       <c r="J22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2817,8 +3177,23 @@
       <c r="W22">
         <v>0.55</v>
       </c>
+      <c r="X22">
+        <v>-3.49</v>
+      </c>
+      <c r="Y22">
+        <v>22.79</v>
+      </c>
+      <c r="Z22">
+        <v>0.8</v>
+      </c>
       <c r="AC22" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2826,22 +3201,25 @@
       <c r="AG22">
         <v>6.409946918487549</v>
       </c>
-      <c r="AH22" t="s">
-        <v>200</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300436</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>9.710000000000001</v>
@@ -2859,7 +3237,7 @@
         <v>287098.8</v>
       </c>
       <c r="J23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2900,8 +3278,23 @@
       <c r="W23">
         <v>-0.06</v>
       </c>
+      <c r="X23">
+        <v>-8.6</v>
+      </c>
+      <c r="Y23">
+        <v>156.22</v>
+      </c>
+      <c r="Z23">
+        <v>2.81</v>
+      </c>
       <c r="AC23" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2909,22 +3302,25 @@
       <c r="AG23">
         <v>0.1352122724056244</v>
       </c>
-      <c r="AH23" t="s">
-        <v>200</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300469</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0.06</v>
@@ -2942,7 +3338,7 @@
         <v>74739.81</v>
       </c>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2983,8 +3379,23 @@
       <c r="W24">
         <v>0.13</v>
       </c>
+      <c r="X24">
+        <v>6.41</v>
+      </c>
+      <c r="Y24">
+        <v>54.3</v>
+      </c>
+      <c r="Z24">
+        <v>8.02</v>
+      </c>
       <c r="AC24" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2992,22 +3403,25 @@
       <c r="AG24">
         <v>1.66357147693634</v>
       </c>
-      <c r="AH24" t="s">
-        <v>200</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300478</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-1.3</v>
@@ -3025,7 +3439,7 @@
         <v>28591.45</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3066,8 +3480,23 @@
       <c r="W25">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X25">
+        <v>-0.05</v>
+      </c>
+      <c r="Y25">
+        <v>20.5</v>
+      </c>
+      <c r="Z25">
+        <v>7.95</v>
+      </c>
       <c r="AC25" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3075,22 +3504,25 @@
       <c r="AG25">
         <v>9.647859573364258</v>
       </c>
-      <c r="AH25" t="s">
-        <v>200</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300491</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>14.39</v>
@@ -3108,7 +3540,7 @@
         <v>102330.75</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -3149,8 +3581,23 @@
       <c r="W26">
         <v>1.27</v>
       </c>
+      <c r="X26">
+        <v>1.67</v>
+      </c>
+      <c r="Y26">
+        <v>30.84</v>
+      </c>
+      <c r="Z26">
+        <v>4.86</v>
+      </c>
       <c r="AC26" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3158,22 +3605,25 @@
       <c r="AG26">
         <v>1.791002750396729</v>
       </c>
-      <c r="AH26" t="s">
-        <v>200</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300499</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>3.92</v>
@@ -3191,7 +3641,7 @@
         <v>319052.57</v>
       </c>
       <c r="J27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K27">
         <v>9</v>
@@ -3232,8 +3682,23 @@
       <c r="W27">
         <v>0.58</v>
       </c>
+      <c r="X27">
+        <v>-4.25</v>
+      </c>
+      <c r="Y27">
+        <v>34.3</v>
+      </c>
+      <c r="Z27">
+        <v>2.63</v>
+      </c>
       <c r="AC27" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3241,22 +3706,25 @@
       <c r="AG27">
         <v>3.136118650436401</v>
       </c>
-      <c r="AH27" t="s">
-        <v>200</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300547</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>4.21</v>
@@ -3274,7 +3742,7 @@
         <v>191225.77</v>
       </c>
       <c r="J28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K28">
         <v>7</v>
@@ -3315,8 +3783,23 @@
       <c r="W28">
         <v>1.59</v>
       </c>
+      <c r="X28">
+        <v>-3.5</v>
+      </c>
+      <c r="Y28">
+        <v>52.46</v>
+      </c>
+      <c r="Z28">
+        <v>0.98</v>
+      </c>
       <c r="AC28" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3324,22 +3807,25 @@
       <c r="AG28">
         <v>4.227923393249512</v>
       </c>
-      <c r="AH28" t="s">
-        <v>200</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300548</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>14.89</v>
@@ -3357,7 +3843,7 @@
         <v>373624.47</v>
       </c>
       <c r="J29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K29">
         <v>30</v>
@@ -3398,8 +3884,23 @@
       <c r="W29">
         <v>0.43</v>
       </c>
+      <c r="X29">
+        <v>2.39</v>
+      </c>
+      <c r="Y29">
+        <v>124.9</v>
+      </c>
+      <c r="Z29">
+        <v>6.83</v>
+      </c>
       <c r="AC29" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3407,22 +3908,25 @@
       <c r="AG29">
         <v>-5.285353660583496</v>
       </c>
-      <c r="AH29" t="s">
-        <v>200</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300579</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>0.46</v>
@@ -3440,7 +3944,7 @@
         <v>82069.66</v>
       </c>
       <c r="J30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K30">
         <v>9</v>
@@ -3481,8 +3985,23 @@
       <c r="W30">
         <v>-0.49</v>
       </c>
+      <c r="X30">
+        <v>-2.52</v>
+      </c>
+      <c r="Y30">
+        <v>40.99</v>
+      </c>
+      <c r="Z30">
+        <v>-0.49</v>
+      </c>
       <c r="AC30" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3490,22 +4009,25 @@
       <c r="AG30">
         <v>2.234584093093872</v>
       </c>
-      <c r="AH30" t="s">
-        <v>200</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300584</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>13.61</v>
@@ -3523,7 +4045,7 @@
         <v>120836.42</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -3564,8 +4086,23 @@
       <c r="W31">
         <v>2.68</v>
       </c>
+      <c r="X31">
+        <v>-1.75</v>
+      </c>
+      <c r="Y31">
+        <v>58.87</v>
+      </c>
+      <c r="Z31">
+        <v>-0.14</v>
+      </c>
       <c r="AC31" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3573,22 +4110,25 @@
       <c r="AG31">
         <v>2.017939329147339</v>
       </c>
-      <c r="AH31" t="s">
-        <v>200</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300588</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>3.21</v>
@@ -3606,7 +4146,7 @@
         <v>43664</v>
       </c>
       <c r="J32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -3647,8 +4187,23 @@
       <c r="W32">
         <v>-0.47</v>
       </c>
+      <c r="X32">
+        <v>-2.17</v>
+      </c>
+      <c r="Y32">
+        <v>21.8</v>
+      </c>
+      <c r="Z32">
+        <v>2.78</v>
+      </c>
       <c r="AC32" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3656,22 +4211,25 @@
       <c r="AG32">
         <v>0.1661377847194672</v>
       </c>
-      <c r="AH32" t="s">
-        <v>200</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300602</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>2.2</v>
@@ -3689,7 +4247,7 @@
         <v>191363.57</v>
       </c>
       <c r="J33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3730,8 +4288,23 @@
       <c r="W33">
         <v>0.74</v>
       </c>
+      <c r="X33">
+        <v>-1.91</v>
+      </c>
+      <c r="Y33">
+        <v>34.4</v>
+      </c>
+      <c r="Z33">
+        <v>2.63</v>
+      </c>
       <c r="AC33" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3739,22 +4312,25 @@
       <c r="AG33">
         <v>1.648230910301208</v>
       </c>
-      <c r="AH33" t="s">
-        <v>200</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300620</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>3.86</v>
@@ -3772,7 +4348,7 @@
         <v>291879.99</v>
       </c>
       <c r="J34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K34">
         <v>10</v>
@@ -3813,8 +4389,23 @@
       <c r="W34">
         <v>0.2</v>
       </c>
+      <c r="X34">
+        <v>-3.52</v>
+      </c>
+      <c r="Y34">
+        <v>93.88</v>
+      </c>
+      <c r="Z34">
+        <v>1.77</v>
+      </c>
       <c r="AC34" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3822,22 +4413,25 @@
       <c r="AG34">
         <v>-3.452659130096436</v>
       </c>
-      <c r="AH34" t="s">
-        <v>200</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300631</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>4.8</v>
@@ -3855,7 +4449,7 @@
         <v>95736.92999999999</v>
       </c>
       <c r="J35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3896,8 +4490,23 @@
       <c r="W35">
         <v>0.54</v>
       </c>
+      <c r="X35">
+        <v>-4.42</v>
+      </c>
+      <c r="Y35">
+        <v>36.29</v>
+      </c>
+      <c r="Z35">
+        <v>-0.98</v>
+      </c>
       <c r="AC35" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3905,22 +4514,25 @@
       <c r="AG35">
         <v>-0.6195006966590881</v>
       </c>
-      <c r="AH35" t="s">
-        <v>200</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300637</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-1.23</v>
@@ -3938,7 +4550,7 @@
         <v>46270.97</v>
       </c>
       <c r="J36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K36">
         <v>9</v>
@@ -3979,8 +4591,23 @@
       <c r="W36">
         <v>-0.65</v>
       </c>
+      <c r="X36">
+        <v>-5.61</v>
+      </c>
+      <c r="Y36">
+        <v>15.58</v>
+      </c>
+      <c r="Z36">
+        <v>-2.93</v>
+      </c>
       <c r="AC36" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3988,22 +4615,25 @@
       <c r="AG36">
         <v>80.43003082275391</v>
       </c>
-      <c r="AH36" t="s">
-        <v>200</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300642</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>10.7</v>
@@ -4021,7 +4651,7 @@
         <v>71554.34</v>
       </c>
       <c r="J37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K37">
         <v>5</v>
@@ -4062,8 +4692,23 @@
       <c r="W37">
         <v>2.21</v>
       </c>
+      <c r="X37">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="Y37">
+        <v>32.8</v>
+      </c>
+      <c r="Z37">
+        <v>14.09</v>
+      </c>
       <c r="AC37" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4071,22 +4716,25 @@
       <c r="AG37">
         <v>-0.1364169418811798</v>
       </c>
-      <c r="AH37" t="s">
-        <v>200</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300660</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>6.31</v>
@@ -4104,7 +4752,7 @@
         <v>154219.53</v>
       </c>
       <c r="J38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4145,8 +4793,23 @@
       <c r="W38">
         <v>0.26</v>
       </c>
+      <c r="X38">
+        <v>-4.53</v>
+      </c>
+      <c r="Y38">
+        <v>55.82</v>
+      </c>
+      <c r="Z38">
+        <v>-0.85</v>
+      </c>
       <c r="AC38" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4154,22 +4817,25 @@
       <c r="AG38">
         <v>0.3401660323143005</v>
       </c>
-      <c r="AH38" t="s">
-        <v>200</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300683</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>20</v>
@@ -4187,7 +4853,7 @@
         <v>98008.77</v>
       </c>
       <c r="J39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4228,8 +4894,23 @@
       <c r="W39">
         <v>1.6</v>
       </c>
+      <c r="X39">
+        <v>-7.32</v>
+      </c>
+      <c r="Y39">
+        <v>61.76</v>
+      </c>
+      <c r="Z39">
+        <v>3.96</v>
+      </c>
       <c r="AC39" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>1</v>
@@ -4237,22 +4918,25 @@
       <c r="AG39">
         <v>16.92347145080566</v>
       </c>
-      <c r="AH39" t="s">
-        <v>201</v>
+      <c r="AH39">
+        <v>1</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300684</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>1.93</v>
@@ -4270,7 +4954,7 @@
         <v>126995.39</v>
       </c>
       <c r="J40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K40">
         <v>19</v>
@@ -4311,8 +4995,23 @@
       <c r="W40">
         <v>-0.44</v>
       </c>
+      <c r="X40">
+        <v>-1.95</v>
+      </c>
+      <c r="Y40">
+        <v>37.35</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
       <c r="AC40" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4320,22 +5019,25 @@
       <c r="AG40">
         <v>4.659256458282471</v>
       </c>
-      <c r="AH40" t="s">
-        <v>200</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300686</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-2.02</v>
@@ -4353,7 +5055,7 @@
         <v>53900.03</v>
       </c>
       <c r="J41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -4394,8 +5096,23 @@
       <c r="W41">
         <v>-0.57</v>
       </c>
+      <c r="X41">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="Y41">
+        <v>14.45</v>
+      </c>
+      <c r="Z41">
+        <v>10.56</v>
+      </c>
       <c r="AC41" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4403,22 +5120,25 @@
       <c r="AG41">
         <v>47.91630935668945</v>
       </c>
-      <c r="AH41" t="s">
-        <v>200</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300701</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>1.51</v>
@@ -4436,7 +5156,7 @@
         <v>43232.55</v>
       </c>
       <c r="J42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4477,8 +5197,23 @@
       <c r="W42">
         <v>-0.21</v>
       </c>
+      <c r="X42">
+        <v>1.18</v>
+      </c>
+      <c r="Y42">
+        <v>13.48</v>
+      </c>
+      <c r="Z42">
+        <v>5.81</v>
+      </c>
       <c r="AC42" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4486,22 +5221,25 @@
       <c r="AG42">
         <v>2.291017770767212</v>
       </c>
-      <c r="AH42" t="s">
-        <v>200</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300724</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>8.65</v>
@@ -4519,7 +5257,7 @@
         <v>281517.34</v>
       </c>
       <c r="J43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K43">
         <v>5</v>
@@ -4560,8 +5298,23 @@
       <c r="W43">
         <v>0.23</v>
       </c>
+      <c r="X43">
+        <v>3.22</v>
+      </c>
+      <c r="Y43">
+        <v>89.98</v>
+      </c>
+      <c r="Z43">
+        <v>7.04</v>
+      </c>
       <c r="AC43" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4569,22 +5322,25 @@
       <c r="AG43">
         <v>5.133870124816895</v>
       </c>
-      <c r="AH43" t="s">
-        <v>200</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300727</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>5.05</v>
@@ -4602,7 +5358,7 @@
         <v>85294.85000000001</v>
       </c>
       <c r="J44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K44">
         <v>7</v>
@@ -4643,8 +5399,23 @@
       <c r="W44">
         <v>1.01</v>
       </c>
+      <c r="X44">
+        <v>-2.5</v>
+      </c>
+      <c r="Y44">
+        <v>39.85</v>
+      </c>
+      <c r="Z44">
+        <v>-0.25</v>
+      </c>
       <c r="AC44" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4652,22 +5423,25 @@
       <c r="AG44">
         <v>-2.671182632446289</v>
       </c>
-      <c r="AH44" t="s">
-        <v>201</v>
+      <c r="AH44">
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300730</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-5.65</v>
@@ -4685,7 +5459,7 @@
         <v>170310.34</v>
       </c>
       <c r="J45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4726,8 +5500,23 @@
       <c r="W45">
         <v>-1.91</v>
       </c>
+      <c r="X45">
+        <v>-0.67</v>
+      </c>
+      <c r="Y45">
+        <v>22.87</v>
+      </c>
+      <c r="Z45">
+        <v>2.19</v>
+      </c>
       <c r="AC45" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4735,22 +5524,25 @@
       <c r="AG45">
         <v>0.2637967467308044</v>
       </c>
-      <c r="AH45" t="s">
-        <v>200</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300740</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>5.12</v>
@@ -4768,7 +5560,7 @@
         <v>78293.45</v>
       </c>
       <c r="J46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4809,8 +5601,23 @@
       <c r="W46">
         <v>0.46</v>
       </c>
+      <c r="X46">
+        <v>10.34</v>
+      </c>
+      <c r="Y46">
+        <v>24.88</v>
+      </c>
+      <c r="Z46">
+        <v>15.35</v>
+      </c>
       <c r="AC46" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4818,22 +5625,25 @@
       <c r="AG46">
         <v>1.934806227684021</v>
       </c>
-      <c r="AH46" t="s">
-        <v>200</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300748</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>20</v>
@@ -4851,7 +5661,7 @@
         <v>561987.12</v>
       </c>
       <c r="J47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K47">
         <v>32</v>
@@ -4892,8 +5702,23 @@
       <c r="W47">
         <v>1.94</v>
       </c>
+      <c r="X47">
+        <v>2.86</v>
+      </c>
+      <c r="Y47">
+        <v>39.48</v>
+      </c>
+      <c r="Z47">
+        <v>8.58</v>
+      </c>
       <c r="AC47" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4901,22 +5726,25 @@
       <c r="AG47">
         <v>1.592099905014038</v>
       </c>
-      <c r="AH47" t="s">
-        <v>200</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300752</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>3.62</v>
@@ -4934,7 +5762,7 @@
         <v>72108.44</v>
       </c>
       <c r="J48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K48">
         <v>5</v>
@@ -4975,8 +5803,23 @@
       <c r="W48">
         <v>2.22</v>
       </c>
+      <c r="X48">
+        <v>-2.43</v>
+      </c>
+      <c r="Y48">
+        <v>27.76</v>
+      </c>
+      <c r="Z48">
+        <v>2.02</v>
+      </c>
       <c r="AC48" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4984,22 +5827,25 @@
       <c r="AG48">
         <v>-0.8897789716720581</v>
       </c>
-      <c r="AH48" t="s">
-        <v>200</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300757</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -5017,7 +5863,7 @@
         <v>398915.43</v>
       </c>
       <c r="J49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -5058,8 +5904,23 @@
       <c r="W49">
         <v>0.7</v>
       </c>
+      <c r="X49">
+        <v>-0.87</v>
+      </c>
+      <c r="Y49">
+        <v>279.3</v>
+      </c>
+      <c r="Z49">
+        <v>3.31</v>
+      </c>
       <c r="AC49" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -5067,22 +5928,25 @@
       <c r="AG49">
         <v>2.878829956054688</v>
       </c>
-      <c r="AH49" t="s">
-        <v>201</v>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300767</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-1.26</v>
@@ -5100,7 +5964,7 @@
         <v>124003.21</v>
       </c>
       <c r="J50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -5141,8 +6005,23 @@
       <c r="W50">
         <v>0.4</v>
       </c>
+      <c r="X50">
+        <v>-0.4</v>
+      </c>
+      <c r="Y50">
+        <v>26.34</v>
+      </c>
+      <c r="Z50">
+        <v>5.28</v>
+      </c>
       <c r="AC50" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>1</v>
@@ -5150,22 +6029,25 @@
       <c r="AG50">
         <v>12.76383876800537</v>
       </c>
-      <c r="AH50" t="s">
-        <v>201</v>
+      <c r="AH50">
+        <v>1</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300803</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>3.48</v>
@@ -5183,7 +6065,7 @@
         <v>1228690.23</v>
       </c>
       <c r="J51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K51">
         <v>10</v>
@@ -5224,8 +6106,23 @@
       <c r="W51">
         <v>-0.21</v>
       </c>
+      <c r="X51">
+        <v>8.43</v>
+      </c>
+      <c r="Y51">
+        <v>158.58</v>
+      </c>
+      <c r="Z51">
+        <v>8.43</v>
+      </c>
       <c r="AC51" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5233,22 +6130,25 @@
       <c r="AG51">
         <v>-6.694841384887695</v>
       </c>
-      <c r="AH51" t="s">
-        <v>200</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300806</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-0.63</v>
@@ -5266,7 +6166,7 @@
         <v>78176.28999999999</v>
       </c>
       <c r="J52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K52">
         <v>7</v>
@@ -5307,8 +6207,23 @@
       <c r="W52">
         <v>-0.7</v>
       </c>
+      <c r="X52">
+        <v>1.89</v>
+      </c>
+      <c r="Y52">
+        <v>26.87</v>
+      </c>
+      <c r="Z52">
+        <v>6.08</v>
+      </c>
       <c r="AC52" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5316,22 +6231,25 @@
       <c r="AG52">
         <v>1.397570013999939</v>
       </c>
-      <c r="AH52" t="s">
-        <v>200</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300811</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>6.14</v>
@@ -5349,7 +6267,7 @@
         <v>130462.3</v>
       </c>
       <c r="J53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K53">
         <v>6</v>
@@ -5390,8 +6308,23 @@
       <c r="W53">
         <v>0.14</v>
       </c>
+      <c r="X53">
+        <v>-3.75</v>
+      </c>
+      <c r="Y53">
+        <v>74.28</v>
+      </c>
+      <c r="Z53">
+        <v>2.13</v>
+      </c>
       <c r="AC53" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5399,22 +6332,25 @@
       <c r="AG53">
         <v>3.531273365020752</v>
       </c>
-      <c r="AH53" t="s">
-        <v>200</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300814</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>5.03</v>
@@ -5432,7 +6368,7 @@
         <v>86510.25</v>
       </c>
       <c r="J54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K54">
         <v>6</v>
@@ -5473,8 +6409,23 @@
       <c r="W54">
         <v>0.43</v>
       </c>
+      <c r="X54">
+        <v>-2.69</v>
+      </c>
+      <c r="Y54">
+        <v>47.42</v>
+      </c>
+      <c r="Z54">
+        <v>0.47</v>
+      </c>
       <c r="AC54" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5482,22 +6433,25 @@
       <c r="AG54">
         <v>0.5926222205162048</v>
       </c>
-      <c r="AH54" t="s">
-        <v>200</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300835</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>8.380000000000001</v>
@@ -5515,7 +6469,7 @@
         <v>77130.07000000001</v>
       </c>
       <c r="J55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K55">
         <v>25</v>
@@ -5556,8 +6510,23 @@
       <c r="W55">
         <v>-0.59</v>
       </c>
+      <c r="X55">
+        <v>-4.34</v>
+      </c>
+      <c r="Y55">
+        <v>65.8</v>
+      </c>
+      <c r="Z55">
+        <v>-0.21</v>
+      </c>
       <c r="AC55" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>1</v>
@@ -5565,22 +6534,25 @@
       <c r="AG55">
         <v>7.539653301239014</v>
       </c>
-      <c r="AH55" t="s">
-        <v>200</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300843</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-3.78</v>
@@ -5598,7 +6570,7 @@
         <v>105659.2</v>
       </c>
       <c r="J56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K56">
         <v>7</v>
@@ -5639,8 +6611,23 @@
       <c r="W56">
         <v>-0.77</v>
       </c>
+      <c r="X56">
+        <v>-3.08</v>
+      </c>
+      <c r="Y56">
+        <v>55.98</v>
+      </c>
+      <c r="Z56">
+        <v>2.75</v>
+      </c>
       <c r="AC56" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5648,22 +6635,25 @@
       <c r="AG56">
         <v>1.950209617614746</v>
       </c>
-      <c r="AH56" t="s">
-        <v>200</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300857</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>9.449999999999999</v>
@@ -5681,7 +6671,7 @@
         <v>353564.72</v>
       </c>
       <c r="J57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5722,8 +6712,23 @@
       <c r="W57">
         <v>-0.26</v>
       </c>
+      <c r="X57">
+        <v>-5.98</v>
+      </c>
+      <c r="Y57">
+        <v>108.88</v>
+      </c>
+      <c r="Z57">
+        <v>1.38</v>
+      </c>
       <c r="AC57" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>1</v>
@@ -5731,22 +6736,25 @@
       <c r="AG57">
         <v>-1.291577816009521</v>
       </c>
-      <c r="AH57" t="s">
-        <v>200</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300870</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-1.77</v>
@@ -5764,7 +6772,7 @@
         <v>213893.72</v>
       </c>
       <c r="J58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K58">
         <v>9</v>
@@ -5805,8 +6813,23 @@
       <c r="W58">
         <v>-0.27</v>
       </c>
+      <c r="X58">
+        <v>-5.35</v>
+      </c>
+      <c r="Y58">
+        <v>269.6</v>
+      </c>
+      <c r="Z58">
+        <v>2.12</v>
+      </c>
       <c r="AC58" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5814,22 +6837,25 @@
       <c r="AG58">
         <v>2.557528495788574</v>
       </c>
-      <c r="AH58" t="s">
-        <v>200</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>300875</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>6.91</v>
@@ -5847,7 +6873,7 @@
         <v>100584.27</v>
       </c>
       <c r="J59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K59">
         <v>14</v>
@@ -5888,8 +6914,23 @@
       <c r="W59">
         <v>0.76</v>
       </c>
+      <c r="X59">
+        <v>-3.67</v>
+      </c>
+      <c r="Y59">
+        <v>60</v>
+      </c>
+      <c r="Z59">
+        <v>-0.78</v>
+      </c>
       <c r="AC59" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5897,22 +6938,25 @@
       <c r="AG59">
         <v>4.850888252258301</v>
       </c>
-      <c r="AH59" t="s">
-        <v>200</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>300893</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-3.14</v>
@@ -5930,7 +6974,7 @@
         <v>41501.74</v>
       </c>
       <c r="J60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K60">
         <v>3</v>
@@ -5971,8 +7015,23 @@
       <c r="W60">
         <v>-0.58</v>
       </c>
+      <c r="X60">
+        <v>1.62</v>
+      </c>
+      <c r="Y60">
+        <v>32.58</v>
+      </c>
+      <c r="Z60">
+        <v>1.72</v>
+      </c>
       <c r="AC60" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5980,22 +7039,25 @@
       <c r="AG60">
         <v>0.5899101495742798</v>
       </c>
-      <c r="AH60" t="s">
-        <v>200</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>300913</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>4.94</v>
@@ -6013,7 +7075,7 @@
         <v>138865.95</v>
       </c>
       <c r="J61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K61">
         <v>5</v>
@@ -6054,8 +7116,23 @@
       <c r="W61">
         <v>-0.46</v>
       </c>
+      <c r="X61">
+        <v>-3.48</v>
+      </c>
+      <c r="Y61">
+        <v>61.41</v>
+      </c>
+      <c r="Z61">
+        <v>-0.23</v>
+      </c>
       <c r="AC61" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6063,22 +7140,25 @@
       <c r="AG61">
         <v>1.756155371665955</v>
       </c>
-      <c r="AH61" t="s">
-        <v>200</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>300991</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>14.95</v>
@@ -6096,7 +7176,7 @@
         <v>108592.36</v>
       </c>
       <c r="J62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6137,8 +7217,23 @@
       <c r="W62">
         <v>1.46</v>
       </c>
+      <c r="X62">
+        <v>-3</v>
+      </c>
+      <c r="Y62">
+        <v>44.99</v>
+      </c>
+      <c r="Z62">
+        <v>3</v>
+      </c>
       <c r="AC62" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6146,22 +7241,25 @@
       <c r="AG62">
         <v>-0.4125630855560303</v>
       </c>
-      <c r="AH62" t="s">
-        <v>200</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301002</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>2.9</v>
@@ -6179,7 +7277,7 @@
         <v>33425.07</v>
       </c>
       <c r="J63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6220,8 +7318,23 @@
       <c r="W63">
         <v>1.15</v>
       </c>
+      <c r="X63">
+        <v>1.23</v>
+      </c>
+      <c r="Y63">
+        <v>34.25</v>
+      </c>
+      <c r="Z63">
+        <v>8.35</v>
+      </c>
       <c r="AC63" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6229,22 +7342,25 @@
       <c r="AG63">
         <v>5.465672492980957</v>
       </c>
-      <c r="AH63" t="s">
-        <v>200</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301007</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>1.4</v>
@@ -6262,7 +7378,7 @@
         <v>65430.52</v>
       </c>
       <c r="J64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K64">
         <v>9</v>
@@ -6303,8 +7419,23 @@
       <c r="W64">
         <v>-0.93</v>
       </c>
+      <c r="X64">
+        <v>-1.11</v>
+      </c>
+      <c r="Y64">
+        <v>48.33</v>
+      </c>
+      <c r="Z64">
+        <v>2.83</v>
+      </c>
       <c r="AC64" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>1</v>
@@ -6312,22 +7443,25 @@
       <c r="AG64">
         <v>2.49531078338623</v>
       </c>
-      <c r="AH64" t="s">
-        <v>200</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301018</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>2.18</v>
@@ -6345,7 +7479,7 @@
         <v>138066.44</v>
       </c>
       <c r="J65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K65">
         <v>9</v>
@@ -6386,8 +7520,23 @@
       <c r="W65">
         <v>0.7</v>
       </c>
+      <c r="X65">
+        <v>-4</v>
+      </c>
+      <c r="Y65">
+        <v>72.5</v>
+      </c>
+      <c r="Z65">
+        <v>2.57</v>
+      </c>
       <c r="AC65" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>1</v>
@@ -6395,22 +7544,25 @@
       <c r="AG65">
         <v>-3.728528499603271</v>
       </c>
-      <c r="AH65" t="s">
-        <v>201</v>
+      <c r="AH65">
+        <v>1</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301041</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>4.1</v>
@@ -6428,7 +7580,7 @@
         <v>57206.25</v>
       </c>
       <c r="J66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6469,8 +7621,23 @@
       <c r="W66">
         <v>0.9</v>
       </c>
+      <c r="X66">
+        <v>-3.64</v>
+      </c>
+      <c r="Y66">
+        <v>32.99</v>
+      </c>
+      <c r="Z66">
+        <v>-0.03</v>
+      </c>
       <c r="AC66" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6478,22 +7645,25 @@
       <c r="AG66">
         <v>1.656312227249146</v>
       </c>
-      <c r="AH66" t="s">
-        <v>200</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301052</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>1.05</v>
@@ -6511,7 +7681,7 @@
         <v>61389.43</v>
       </c>
       <c r="J67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -6552,8 +7722,23 @@
       <c r="W67">
         <v>-0.25</v>
       </c>
+      <c r="X67">
+        <v>-3.1</v>
+      </c>
+      <c r="Y67">
+        <v>81.18000000000001</v>
+      </c>
+      <c r="Z67">
+        <v>2.84</v>
+      </c>
       <c r="AC67" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6561,22 +7746,25 @@
       <c r="AG67">
         <v>1.116372346878052</v>
       </c>
-      <c r="AH67" t="s">
-        <v>200</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301095</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-2.8</v>
@@ -6594,7 +7782,7 @@
         <v>140917.32</v>
       </c>
       <c r="J68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K68">
         <v>19</v>
@@ -6635,8 +7823,23 @@
       <c r="W68">
         <v>-0.48</v>
       </c>
+      <c r="X68">
+        <v>-1.21</v>
+      </c>
+      <c r="Y68">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="Z68">
+        <v>1.67</v>
+      </c>
       <c r="AC68" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6644,22 +7847,25 @@
       <c r="AG68">
         <v>4.851547718048096</v>
       </c>
-      <c r="AH68" t="s">
-        <v>200</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301123</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-0.46</v>
@@ -6677,7 +7883,7 @@
         <v>61589.14</v>
       </c>
       <c r="J69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K69">
         <v>15</v>
@@ -6718,8 +7924,23 @@
       <c r="W69">
         <v>-0.2</v>
       </c>
+      <c r="X69">
+        <v>-0.96</v>
+      </c>
+      <c r="Y69">
+        <v>47.28</v>
+      </c>
+      <c r="Z69">
+        <v>10.24</v>
+      </c>
       <c r="AC69" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6727,22 +7948,25 @@
       <c r="AG69">
         <v>0.8258395195007324</v>
       </c>
-      <c r="AH69" t="s">
-        <v>200</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301128</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>20</v>
@@ -6760,7 +7984,7 @@
         <v>161883.37</v>
       </c>
       <c r="J70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K70">
         <v>9</v>
@@ -6801,8 +8025,23 @@
       <c r="W70">
         <v>0.92</v>
       </c>
+      <c r="X70">
+        <v>-11.93</v>
+      </c>
+      <c r="Y70">
+        <v>113.99</v>
+      </c>
+      <c r="Z70">
+        <v>-3.38</v>
+      </c>
       <c r="AC70" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6810,22 +8049,25 @@
       <c r="AG70">
         <v>16.69929313659668</v>
       </c>
-      <c r="AH70" t="s">
-        <v>200</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301165</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>1.03</v>
@@ -6843,7 +8085,7 @@
         <v>199929.87</v>
       </c>
       <c r="J71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K71">
         <v>10</v>
@@ -6884,8 +8126,23 @@
       <c r="W71">
         <v>-0.61</v>
       </c>
+      <c r="X71">
+        <v>-2.36</v>
+      </c>
+      <c r="Y71">
+        <v>92.12</v>
+      </c>
+      <c r="Z71">
+        <v>1.14</v>
+      </c>
       <c r="AC71" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6893,22 +8150,25 @@
       <c r="AG71">
         <v>1.965006709098816</v>
       </c>
-      <c r="AH71" t="s">
-        <v>200</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301183</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>3.82</v>
@@ -6926,7 +8186,7 @@
         <v>82742.46000000001</v>
       </c>
       <c r="J72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K72">
         <v>5</v>
@@ -6967,8 +8227,23 @@
       <c r="W72">
         <v>1.89</v>
       </c>
+      <c r="X72">
+        <v>2.69</v>
+      </c>
+      <c r="Y72">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="Z72">
+        <v>3.21</v>
+      </c>
       <c r="AC72" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6976,22 +8251,25 @@
       <c r="AG72">
         <v>-1.100278377532959</v>
       </c>
-      <c r="AH72" t="s">
-        <v>200</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301202</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>6.3</v>
@@ -7009,7 +8287,7 @@
         <v>59226.99</v>
       </c>
       <c r="J73" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -7050,8 +8328,23 @@
       <c r="W73">
         <v>0.15</v>
       </c>
+      <c r="X73">
+        <v>-0.61</v>
+      </c>
+      <c r="Y73">
+        <v>55.35</v>
+      </c>
+      <c r="Z73">
+        <v>1.93</v>
+      </c>
       <c r="AC73" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7059,22 +8352,25 @@
       <c r="AG73">
         <v>6.57858419418335</v>
       </c>
-      <c r="AH73" t="s">
-        <v>200</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301205</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>5.26</v>
@@ -7092,7 +8388,7 @@
         <v>109753.02</v>
       </c>
       <c r="J74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K74">
         <v>4</v>
@@ -7133,8 +8429,23 @@
       <c r="W74">
         <v>0.18</v>
       </c>
+      <c r="X74">
+        <v>4.48</v>
+      </c>
+      <c r="Y74">
+        <v>121.85</v>
+      </c>
+      <c r="Z74">
+        <v>6.78</v>
+      </c>
       <c r="AC74" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7142,22 +8453,25 @@
       <c r="AG74">
         <v>2.937096357345581</v>
       </c>
-      <c r="AH74" t="s">
-        <v>200</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301217</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>4.98</v>
@@ -7175,7 +8489,7 @@
         <v>241283.23</v>
       </c>
       <c r="J75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K75">
         <v>36</v>
@@ -7216,8 +8530,23 @@
       <c r="W75">
         <v>0.01</v>
       </c>
+      <c r="X75">
+        <v>-4.92</v>
+      </c>
+      <c r="Y75">
+        <v>35.6</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
       <c r="AC75" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7225,22 +8554,25 @@
       <c r="AG75">
         <v>-1.071658730506897</v>
       </c>
-      <c r="AH75" t="s">
-        <v>200</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301219</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -7258,7 +8590,7 @@
         <v>84035.60000000001</v>
       </c>
       <c r="J76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K76">
         <v>4</v>
@@ -7299,8 +8631,23 @@
       <c r="W76">
         <v>0.18</v>
       </c>
+      <c r="X76">
+        <v>-3.52</v>
+      </c>
+      <c r="Y76">
+        <v>68.88</v>
+      </c>
+      <c r="Z76">
+        <v>0.12</v>
+      </c>
       <c r="AC76" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7308,22 +8655,25 @@
       <c r="AG76">
         <v>13.54853248596191</v>
       </c>
-      <c r="AH76" t="s">
-        <v>200</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301345</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>-1.48</v>
@@ -7341,7 +8691,7 @@
         <v>43701.99</v>
       </c>
       <c r="J77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -7382,8 +8732,23 @@
       <c r="W77">
         <v>-0.06</v>
       </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
+        <v>197</v>
+      </c>
+      <c r="Z77">
+        <v>2.66</v>
+      </c>
       <c r="AC77" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7391,22 +8756,25 @@
       <c r="AG77">
         <v>7.072835445404053</v>
       </c>
-      <c r="AH77" t="s">
-        <v>200</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301377</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>7.7</v>
@@ -7424,7 +8792,7 @@
         <v>105771.99</v>
       </c>
       <c r="J78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K78">
         <v>11</v>
@@ -7465,8 +8833,23 @@
       <c r="W78">
         <v>-0.27</v>
       </c>
+      <c r="X78">
+        <v>2.74</v>
+      </c>
+      <c r="Y78">
+        <v>77.09</v>
+      </c>
+      <c r="Z78">
+        <v>5.17</v>
+      </c>
       <c r="AC78" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7474,22 +8857,25 @@
       <c r="AG78">
         <v>-1.08789050579071</v>
       </c>
-      <c r="AH78" t="s">
-        <v>200</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301392</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-1.83</v>
@@ -7507,7 +8893,7 @@
         <v>74234.44</v>
       </c>
       <c r="J79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K79">
         <v>5</v>
@@ -7548,8 +8934,23 @@
       <c r="W79">
         <v>-0.41</v>
       </c>
+      <c r="X79">
+        <v>-3.94</v>
+      </c>
+      <c r="Y79">
+        <v>185.99</v>
+      </c>
+      <c r="Z79">
+        <v>-0.39</v>
+      </c>
       <c r="AC79" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>1</v>
@@ -7557,22 +8958,25 @@
       <c r="AG79">
         <v>2.412201404571533</v>
       </c>
-      <c r="AH79" t="s">
-        <v>200</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301397</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>9.83</v>
@@ -7590,7 +8994,7 @@
         <v>63910.65</v>
       </c>
       <c r="J80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K80">
         <v>13</v>
@@ -7631,8 +9035,23 @@
       <c r="W80">
         <v>1.1</v>
       </c>
+      <c r="X80">
+        <v>-6.59</v>
+      </c>
+      <c r="Y80">
+        <v>47.5</v>
+      </c>
+      <c r="Z80">
+        <v>-0.63</v>
+      </c>
       <c r="AC80" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7640,22 +9059,25 @@
       <c r="AG80">
         <v>1.765149354934692</v>
       </c>
-      <c r="AH80" t="s">
-        <v>200</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301413</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>10.4</v>
@@ -7673,7 +9095,7 @@
         <v>76508.39999999999</v>
       </c>
       <c r="J81" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -7714,8 +9136,23 @@
       <c r="W81">
         <v>-0.29</v>
       </c>
+      <c r="X81">
+        <v>-3.3</v>
+      </c>
+      <c r="Y81">
+        <v>126</v>
+      </c>
+      <c r="Z81">
+        <v>0.33</v>
+      </c>
       <c r="AC81" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7723,22 +9160,25 @@
       <c r="AG81">
         <v>-13.14105224609375</v>
       </c>
-      <c r="AH81" t="s">
-        <v>200</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301486</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>5.75</v>
@@ -7756,7 +9196,7 @@
         <v>138336.65</v>
       </c>
       <c r="J82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K82">
         <v>9</v>
@@ -7797,8 +9237,23 @@
       <c r="W82">
         <v>-0.33</v>
       </c>
+      <c r="X82">
+        <v>-3.44</v>
+      </c>
+      <c r="Y82">
+        <v>96.38</v>
+      </c>
+      <c r="Z82">
+        <v>-0.72</v>
+      </c>
       <c r="AC82" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7806,22 +9261,25 @@
       <c r="AG82">
         <v>-9.308453559875488</v>
       </c>
-      <c r="AH82" t="s">
-        <v>200</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>301489</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-1.08</v>
@@ -7839,7 +9297,7 @@
         <v>121685.31</v>
       </c>
       <c r="J83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K83">
         <v>18</v>
@@ -7880,8 +9338,23 @@
       <c r="W83">
         <v>0.48</v>
       </c>
+      <c r="X83">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="Y83">
+        <v>185</v>
+      </c>
+      <c r="Z83">
+        <v>-3.14</v>
+      </c>
       <c r="AC83" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7889,22 +9362,25 @@
       <c r="AG83">
         <v>0.5116704702377319</v>
       </c>
-      <c r="AH83" t="s">
-        <v>200</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>301526</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>3.09</v>
@@ -7922,7 +9398,7 @@
         <v>143547.62</v>
       </c>
       <c r="J84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K84">
         <v>13</v>
@@ -7963,8 +9439,23 @@
       <c r="W84">
         <v>-0.35</v>
       </c>
+      <c r="X84">
+        <v>2.54</v>
+      </c>
+      <c r="Y84">
+        <v>7.56</v>
+      </c>
+      <c r="Z84">
+        <v>13.17</v>
+      </c>
       <c r="AC84" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
       </c>
       <c r="AF84">
         <v>1</v>
@@ -7972,22 +9463,25 @@
       <c r="AG84">
         <v>5.601624965667725</v>
       </c>
-      <c r="AH84" t="s">
-        <v>200</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>301617</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>9.359999999999999</v>
@@ -8005,7 +9499,7 @@
         <v>66849.81</v>
       </c>
       <c r="J85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -8046,8 +9540,23 @@
       <c r="W85">
         <v>0.38</v>
       </c>
+      <c r="X85">
+        <v>1.37</v>
+      </c>
+      <c r="Y85">
+        <v>56</v>
+      </c>
+      <c r="Z85">
+        <v>5.14</v>
+      </c>
       <c r="AC85" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8055,22 +9564,25 @@
       <c r="AG85">
         <v>4.192652225494385</v>
       </c>
-      <c r="AH85" t="s">
-        <v>200</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688020</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>12.31</v>
@@ -8088,7 +9600,7 @@
         <v>50725.03</v>
       </c>
       <c r="J86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -8129,8 +9641,23 @@
       <c r="W86">
         <v>0.67</v>
       </c>
+      <c r="X86">
+        <v>5.99</v>
+      </c>
+      <c r="Y86">
+        <v>74.51000000000001</v>
+      </c>
+      <c r="Z86">
+        <v>11.23</v>
+      </c>
       <c r="AC86" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8138,22 +9665,25 @@
       <c r="AG86">
         <v>9.011804580688477</v>
       </c>
-      <c r="AH86" t="s">
-        <v>200</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688035</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>-1.3</v>
@@ -8171,7 +9701,7 @@
         <v>51619.09</v>
       </c>
       <c r="J87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K87">
         <v>6</v>
@@ -8212,8 +9742,23 @@
       <c r="W87">
         <v>-0.17</v>
       </c>
+      <c r="X87">
+        <v>-3.17</v>
+      </c>
+      <c r="Y87">
+        <v>57.5</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
       <c r="AC87" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8221,22 +9766,25 @@
       <c r="AG87">
         <v>2.921511888504028</v>
       </c>
-      <c r="AH87" t="s">
-        <v>200</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688048</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>3.38</v>
@@ -8254,7 +9802,7 @@
         <v>112911.85</v>
       </c>
       <c r="J88" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K88">
         <v>16</v>
@@ -8295,8 +9843,23 @@
       <c r="W88">
         <v>-0.52</v>
       </c>
+      <c r="X88">
+        <v>-7.29</v>
+      </c>
+      <c r="Y88">
+        <v>80.65000000000001</v>
+      </c>
+      <c r="Z88">
+        <v>-1.68</v>
+      </c>
       <c r="AC88" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8304,22 +9867,25 @@
       <c r="AG88">
         <v>-0.62193363904953</v>
       </c>
-      <c r="AH88" t="s">
-        <v>200</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688049</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>1.45</v>
@@ -8337,7 +9903,7 @@
         <v>96926.46000000001</v>
       </c>
       <c r="J89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K89">
         <v>8</v>
@@ -8378,8 +9944,23 @@
       <c r="W89">
         <v>-0.37</v>
       </c>
+      <c r="X89">
+        <v>-2.83</v>
+      </c>
+      <c r="Y89">
+        <v>58.9</v>
+      </c>
+      <c r="Z89">
+        <v>1.76</v>
+      </c>
       <c r="AC89" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8387,22 +9968,25 @@
       <c r="AG89">
         <v>1.935257434844971</v>
       </c>
-      <c r="AH89" t="s">
-        <v>200</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688066</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>20</v>
@@ -8420,7 +10004,7 @@
         <v>144788.9</v>
       </c>
       <c r="J90" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -8461,8 +10045,23 @@
       <c r="W90">
         <v>1.83</v>
       </c>
+      <c r="X90">
+        <v>14.45</v>
+      </c>
+      <c r="Y90">
+        <v>37.99</v>
+      </c>
+      <c r="Z90">
+        <v>18.79</v>
+      </c>
       <c r="AC90" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD90">
+        <v>1</v>
+      </c>
+      <c r="AE90">
+        <v>1</v>
       </c>
       <c r="AF90">
         <v>1</v>
@@ -8470,22 +10069,25 @@
       <c r="AG90">
         <v>20.01119613647461</v>
       </c>
-      <c r="AH90" t="s">
-        <v>201</v>
+      <c r="AH90">
+        <v>1</v>
+      </c>
+      <c r="AI90">
+        <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688098</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>13.81</v>
@@ -8503,7 +10105,7 @@
         <v>72296.7</v>
       </c>
       <c r="J91" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -8544,8 +10146,23 @@
       <c r="W91">
         <v>0.42</v>
       </c>
+      <c r="X91">
+        <v>-8.41</v>
+      </c>
+      <c r="Y91">
+        <v>14.57</v>
+      </c>
+      <c r="Z91">
+        <v>0.48</v>
+      </c>
       <c r="AC91" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8553,22 +10170,25 @@
       <c r="AG91">
         <v>5.128360748291016</v>
       </c>
-      <c r="AH91" t="s">
-        <v>200</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688110</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>7.78</v>
@@ -8586,7 +10206,7 @@
         <v>439603.71</v>
       </c>
       <c r="J92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8627,8 +10247,23 @@
       <c r="W92">
         <v>-0.28</v>
       </c>
+      <c r="X92">
+        <v>1.03</v>
+      </c>
+      <c r="Y92">
+        <v>104.45</v>
+      </c>
+      <c r="Z92">
+        <v>5.51</v>
+      </c>
       <c r="AC92" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8636,22 +10271,25 @@
       <c r="AG92">
         <v>-24.59348106384277</v>
       </c>
-      <c r="AH92" t="s">
-        <v>200</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688146</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>1.18</v>
@@ -8669,7 +10307,7 @@
         <v>84276.69</v>
       </c>
       <c r="J93" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K93">
         <v>9</v>
@@ -8710,8 +10348,23 @@
       <c r="W93">
         <v>-0.39</v>
       </c>
+      <c r="X93">
+        <v>1</v>
+      </c>
+      <c r="Y93">
+        <v>43.19</v>
+      </c>
+      <c r="Z93">
+        <v>2.98</v>
+      </c>
       <c r="AC93" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8719,22 +10372,25 @@
       <c r="AG93">
         <v>0.52375328540802</v>
       </c>
-      <c r="AH93" t="s">
-        <v>200</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688147</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>0.08</v>
@@ -8752,7 +10408,7 @@
         <v>46398.59</v>
       </c>
       <c r="J94" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K94">
         <v>6</v>
@@ -8793,8 +10449,23 @@
       <c r="W94">
         <v>0.25</v>
       </c>
+      <c r="X94">
+        <v>2.08</v>
+      </c>
+      <c r="Y94">
+        <v>40.46</v>
+      </c>
+      <c r="Z94">
+        <v>3.88</v>
+      </c>
       <c r="AC94" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8802,22 +10473,25 @@
       <c r="AG94">
         <v>1.612596988677979</v>
       </c>
-      <c r="AH94" t="s">
-        <v>200</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688167</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>7.53</v>
@@ -8835,7 +10509,7 @@
         <v>124537.72</v>
       </c>
       <c r="J95" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K95">
         <v>14</v>
@@ -8876,8 +10550,23 @@
       <c r="W95">
         <v>0.41</v>
       </c>
+      <c r="X95">
+        <v>-4.96</v>
+      </c>
+      <c r="Y95">
+        <v>138.87</v>
+      </c>
+      <c r="Z95">
+        <v>-0.66</v>
+      </c>
       <c r="AC95" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8885,22 +10574,25 @@
       <c r="AG95">
         <v>-4.192771911621094</v>
       </c>
-      <c r="AH95" t="s">
-        <v>200</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688195</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>2.94</v>
@@ -8918,7 +10610,7 @@
         <v>92916.25999999999</v>
       </c>
       <c r="J96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K96">
         <v>6</v>
@@ -8959,8 +10651,23 @@
       <c r="W96">
         <v>0.84</v>
       </c>
+      <c r="X96">
+        <v>-4.22</v>
+      </c>
+      <c r="Y96">
+        <v>63.93</v>
+      </c>
+      <c r="Z96">
+        <v>-0.11</v>
+      </c>
       <c r="AC96" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>1</v>
@@ -8968,22 +10675,25 @@
       <c r="AG96">
         <v>6.603371143341064</v>
       </c>
-      <c r="AH96" t="s">
-        <v>201</v>
+      <c r="AH96">
+        <v>1</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688205</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>10.11</v>
@@ -9001,7 +10711,7 @@
         <v>255441.48</v>
       </c>
       <c r="J97" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9042,8 +10752,23 @@
       <c r="W97">
         <v>-0.93</v>
       </c>
+      <c r="X97">
+        <v>-4.54</v>
+      </c>
+      <c r="Y97">
+        <v>103.5</v>
+      </c>
+      <c r="Z97">
+        <v>3.95</v>
+      </c>
       <c r="AC97" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9051,22 +10776,25 @@
       <c r="AG97">
         <v>17.1954345703125</v>
       </c>
-      <c r="AH97" t="s">
-        <v>200</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688270</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>6.59</v>
@@ -9084,7 +10812,7 @@
         <v>148631.18</v>
       </c>
       <c r="J98" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K98">
         <v>9</v>
@@ -9125,8 +10853,23 @@
       <c r="W98">
         <v>0.72</v>
       </c>
+      <c r="X98">
+        <v>-2.58</v>
+      </c>
+      <c r="Y98">
+        <v>74</v>
+      </c>
+      <c r="Z98">
+        <v>1.72</v>
+      </c>
       <c r="AC98" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9134,22 +10877,25 @@
       <c r="AG98">
         <v>-0.07196303457021713</v>
       </c>
-      <c r="AH98" t="s">
-        <v>200</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688313</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>10.32</v>
@@ -9167,7 +10913,7 @@
         <v>335715.58</v>
       </c>
       <c r="J99" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K99">
         <v>10</v>
@@ -9208,8 +10954,23 @@
       <c r="W99">
         <v>-0.23</v>
       </c>
+      <c r="X99">
+        <v>-1.34</v>
+      </c>
+      <c r="Y99">
+        <v>74.3</v>
+      </c>
+      <c r="Z99">
+        <v>4</v>
+      </c>
       <c r="AC99" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9217,22 +10978,25 @@
       <c r="AG99">
         <v>-18.36489295959473</v>
       </c>
-      <c r="AH99" t="s">
-        <v>200</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688372</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>-1.17</v>
@@ -9250,7 +11014,7 @@
         <v>121856.83</v>
       </c>
       <c r="J100" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K100">
         <v>3</v>
@@ -9291,8 +11055,23 @@
       <c r="W100">
         <v>-1.57</v>
       </c>
+      <c r="X100">
+        <v>0.25</v>
+      </c>
+      <c r="Y100">
+        <v>80.86</v>
+      </c>
+      <c r="Z100">
+        <v>1.48</v>
+      </c>
       <c r="AC100" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9300,22 +11079,25 @@
       <c r="AG100">
         <v>2.548084497451782</v>
       </c>
-      <c r="AH100" t="s">
-        <v>200</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688489</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>6.35</v>
@@ -9333,7 +11115,7 @@
         <v>60989.36</v>
       </c>
       <c r="J101" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -9374,8 +11156,23 @@
       <c r="W101">
         <v>0.52</v>
       </c>
+      <c r="X101">
+        <v>-6</v>
+      </c>
+      <c r="Y101">
+        <v>56.18</v>
+      </c>
+      <c r="Z101">
+        <v>-3.64</v>
+      </c>
       <c r="AC101" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9383,22 +11180,25 @@
       <c r="AG101">
         <v>7.359951972961426</v>
       </c>
-      <c r="AH101" t="s">
-        <v>200</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688502</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>2.97</v>
@@ -9416,7 +11216,7 @@
         <v>68588.52</v>
       </c>
       <c r="J102" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K102">
         <v>21</v>
@@ -9457,8 +11257,23 @@
       <c r="W102">
         <v>-0.17</v>
       </c>
+      <c r="X102">
+        <v>-5.33</v>
+      </c>
+      <c r="Y102">
+        <v>446</v>
+      </c>
+      <c r="Z102">
+        <v>-1.11</v>
+      </c>
       <c r="AC102" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9466,22 +11281,25 @@
       <c r="AG102">
         <v>3.440634727478027</v>
       </c>
-      <c r="AH102" t="s">
-        <v>200</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>688507</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103">
         <v>8.800000000000001</v>
@@ -9499,7 +11317,7 @@
         <v>92244.02</v>
       </c>
       <c r="J103" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -9540,8 +11358,23 @@
       <c r="W103">
         <v>-0.88</v>
       </c>
+      <c r="X103">
+        <v>-6.21</v>
+      </c>
+      <c r="Y103">
+        <v>110.5</v>
+      </c>
+      <c r="Z103">
+        <v>-2.34</v>
+      </c>
       <c r="AC103" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -9549,22 +11382,25 @@
       <c r="AG103">
         <v>2.728817939758301</v>
       </c>
-      <c r="AH103" t="s">
-        <v>200</v>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>688508</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104">
         <v>-0.95</v>
@@ -9582,7 +11418,7 @@
         <v>75985.33</v>
       </c>
       <c r="J104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9623,8 +11459,23 @@
       <c r="W104">
         <v>-0.25</v>
       </c>
+      <c r="X104">
+        <v>-1.31</v>
+      </c>
+      <c r="Y104">
+        <v>65.88</v>
+      </c>
+      <c r="Z104">
+        <v>0.11</v>
+      </c>
       <c r="AC104" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
       </c>
       <c r="AF104">
         <v>0</v>
@@ -9632,22 +11483,25 @@
       <c r="AG104">
         <v>0.259073942899704</v>
       </c>
-      <c r="AH104" t="s">
-        <v>200</v>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>688519</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E105">
         <v>0.74</v>
@@ -9665,7 +11519,7 @@
         <v>101105.88</v>
       </c>
       <c r="J105" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9706,8 +11560,23 @@
       <c r="W105">
         <v>0.3</v>
       </c>
+      <c r="X105">
+        <v>-3.91</v>
+      </c>
+      <c r="Y105">
+        <v>82</v>
+      </c>
+      <c r="Z105">
+        <v>7.46</v>
+      </c>
       <c r="AC105" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>1</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -9715,22 +11584,25 @@
       <c r="AG105">
         <v>8.647091865539551</v>
       </c>
-      <c r="AH105" t="s">
-        <v>200</v>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106">
         <v>688521</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106">
         <v>5.39</v>
@@ -9748,7 +11620,7 @@
         <v>801514.4399999999</v>
       </c>
       <c r="J106" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K106">
         <v>4</v>
@@ -9789,8 +11661,23 @@
       <c r="W106">
         <v>-0.2</v>
       </c>
+      <c r="X106">
+        <v>-9.33</v>
+      </c>
+      <c r="Y106">
+        <v>149.99</v>
+      </c>
+      <c r="Z106">
+        <v>-5.01</v>
+      </c>
       <c r="AC106" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
       </c>
       <c r="AF106">
         <v>1</v>
@@ -9798,22 +11685,25 @@
       <c r="AG106">
         <v>5.630521297454834</v>
       </c>
-      <c r="AH106" t="s">
-        <v>200</v>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107">
         <v>688582</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107">
         <v>2.32</v>
@@ -9831,7 +11721,7 @@
         <v>116496.22</v>
       </c>
       <c r="J107" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K107">
         <v>6</v>
@@ -9872,8 +11762,23 @@
       <c r="W107">
         <v>-0.14</v>
       </c>
+      <c r="X107">
+        <v>-1.88</v>
+      </c>
+      <c r="Y107">
+        <v>82.55</v>
+      </c>
+      <c r="Z107">
+        <v>-0.34</v>
+      </c>
       <c r="AC107" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
       </c>
       <c r="AF107">
         <v>0</v>
@@ -9881,22 +11786,25 @@
       <c r="AG107">
         <v>2.942924499511719</v>
       </c>
-      <c r="AH107" t="s">
-        <v>200</v>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108">
         <v>688629</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E108">
         <v>11.95</v>
@@ -9914,7 +11822,7 @@
         <v>238409.06</v>
       </c>
       <c r="J108" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -9955,8 +11863,23 @@
       <c r="W108">
         <v>1.11</v>
       </c>
+      <c r="X108">
+        <v>2.7</v>
+      </c>
+      <c r="Y108">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="Z108">
+        <v>15.8</v>
+      </c>
       <c r="AC108" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>1</v>
       </c>
       <c r="AF108">
         <v>0</v>
@@ -9964,22 +11887,25 @@
       <c r="AG108">
         <v>5.900294780731201</v>
       </c>
-      <c r="AH108" t="s">
-        <v>200</v>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>688709</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109">
         <v>0.96</v>
@@ -9997,7 +11923,7 @@
         <v>143851.94</v>
       </c>
       <c r="J109" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K109">
         <v>2</v>
@@ -10038,8 +11964,23 @@
       <c r="W109">
         <v>-0.38</v>
       </c>
+      <c r="X109">
+        <v>-5.03</v>
+      </c>
+      <c r="Y109">
+        <v>46</v>
+      </c>
+      <c r="Z109">
+        <v>-3.14</v>
+      </c>
       <c r="AC109" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
       </c>
       <c r="AF109">
         <v>0</v>
@@ -10047,22 +11988,25 @@
       <c r="AG109">
         <v>-0.4518094956874847</v>
       </c>
-      <c r="AH109" t="s">
-        <v>200</v>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>688716</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E110">
         <v>2.98</v>
@@ -10080,7 +12024,7 @@
         <v>55146.82</v>
       </c>
       <c r="J110" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K110">
         <v>8</v>
@@ -10121,8 +12065,23 @@
       <c r="W110">
         <v>0.05</v>
       </c>
+      <c r="X110">
+        <v>-6.9</v>
+      </c>
+      <c r="Y110">
+        <v>53.21</v>
+      </c>
+      <c r="Z110">
+        <v>-0.82</v>
+      </c>
       <c r="AC110" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
       </c>
       <c r="AF110">
         <v>0</v>
@@ -10130,22 +12089,25 @@
       <c r="AG110">
         <v>3.62848949432373</v>
       </c>
-      <c r="AH110" t="s">
-        <v>200</v>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C111">
         <v>688798</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E111">
         <v>1.96</v>
@@ -10163,7 +12125,7 @@
         <v>91720.78999999999</v>
       </c>
       <c r="J111" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K111">
         <v>4</v>
@@ -10204,8 +12166,23 @@
       <c r="W111">
         <v>-0.1</v>
       </c>
+      <c r="X111">
+        <v>0.06</v>
+      </c>
+      <c r="Y111">
+        <v>97.84999999999999</v>
+      </c>
+      <c r="Z111">
+        <v>2.29</v>
+      </c>
       <c r="AC111" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
       </c>
       <c r="AF111">
         <v>0</v>
@@ -10213,8 +12190,11 @@
       <c r="AG111">
         <v>9.548968315124512</v>
       </c>
-      <c r="AH111" t="s">
-        <v>200</v>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
